--- a/REGULAR/CAPUPUZ, LIZA FE.xlsx
+++ b/REGULAR/CAPUPUZ, LIZA FE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371D1FF1-9767-48AF-86B5-A9E4DE37BBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A49121D-B7CB-4EAE-BCB6-4A87BF2FC588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,6 +280,21 @@
   </si>
   <si>
     <t>12/26-31/2022</t>
+  </si>
+  <si>
+    <t>9/20,23</t>
+  </si>
+  <si>
+    <t>QL(2-0-0)</t>
+  </si>
+  <si>
+    <t>COVID 11/14,15</t>
+  </si>
+  <si>
+    <t>QL(3-0-0)</t>
+  </si>
+  <si>
+    <t>OVID 11/16,17,18</t>
   </si>
 </sst>
 </file>
@@ -516,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,6 +673,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,12 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,7 +986,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K170" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K171" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1303,12 +1315,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K170"/>
+  <dimension ref="A2:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A103" activePane="bottomLeft"/>
+      <pane ySplit="3888" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,64 +1342,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>42186</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1413,18 +1425,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1471,7 +1483,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.5</v>
+        <v>72.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1481,7 +1493,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>83.5</v>
+        <v>84.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1490,10 +1502,10 @@
       <c r="A10" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="49" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="20"/>
@@ -1502,7 +1514,7 @@
         <v/>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="49" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="11"/>
@@ -1512,7 +1524,7 @@
       <c r="A11" s="23">
         <v>42186</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="13">
         <v>1.25</v>
       </c>
@@ -1532,7 +1544,7 @@
       <c r="A12" s="23">
         <v>42217</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
@@ -1552,7 +1564,7 @@
       <c r="A13" s="23">
         <v>42248</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="13">
         <v>1.25</v>
       </c>
@@ -1572,7 +1584,7 @@
       <c r="A14" s="23">
         <v>42278</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="13">
         <v>1.25</v>
       </c>
@@ -1592,7 +1604,7 @@
       <c r="A15" s="23">
         <v>42309</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
@@ -1612,7 +1624,7 @@
       <c r="A16" s="23">
         <v>42339</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="13">
@@ -1636,7 +1648,7 @@
       <c r="A17" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="13"/>
       <c r="D17" s="38"/>
       <c r="E17" s="13"/>
@@ -1654,7 +1666,7 @@
       <c r="A18" s="23">
         <v>42370</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="13">
         <v>1.25</v>
       </c>
@@ -1674,7 +1686,7 @@
       <c r="A19" s="23">
         <v>42401</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="13">
@@ -1700,7 +1712,7 @@
       <c r="A20" s="23">
         <v>42430</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="13">
@@ -1722,7 +1734,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="13"/>
@@ -1744,7 +1756,7 @@
       <c r="A22" s="23">
         <v>42461</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
@@ -1764,7 +1776,7 @@
       <c r="A23" s="23">
         <v>42491</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="13">
@@ -1790,7 +1802,7 @@
       <c r="A24" s="23">
         <v>42522</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="13">
         <v>1.25</v>
       </c>
@@ -1810,7 +1822,7 @@
       <c r="A25" s="23">
         <v>42552</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="13">
         <v>1.25</v>
       </c>
@@ -1830,7 +1842,7 @@
       <c r="A26" s="23">
         <v>42583</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="13">
         <v>1.25</v>
       </c>
@@ -1850,7 +1862,7 @@
       <c r="A27" s="23">
         <v>42614</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
@@ -1870,7 +1882,7 @@
       <c r="A28" s="23">
         <v>42644</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="13">
@@ -1894,7 +1906,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="13"/>
@@ -1918,7 +1930,7 @@
       <c r="A30" s="23">
         <v>42675</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
@@ -1938,7 +1950,7 @@
       <c r="A31" s="23">
         <v>42705</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="13">
@@ -1964,7 +1976,7 @@
       <c r="A32" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="38"/>
       <c r="E32" s="13"/>
@@ -1982,7 +1994,7 @@
       <c r="A33" s="23">
         <v>42736</v>
       </c>
-      <c r="B33" s="60"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
@@ -2002,7 +2014,7 @@
       <c r="A34" s="23">
         <v>42767</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="13">
@@ -2028,7 +2040,7 @@
       <c r="A35" s="23">
         <v>42795</v>
       </c>
-      <c r="B35" s="60"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
@@ -2048,7 +2060,7 @@
       <c r="A36" s="23">
         <v>42826</v>
       </c>
-      <c r="B36" s="60"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
@@ -2068,7 +2080,7 @@
       <c r="A37" s="23">
         <v>42856</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="13">
@@ -2090,7 +2102,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="13"/>
@@ -2112,7 +2124,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="13"/>
@@ -2134,7 +2146,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="13"/>
@@ -2158,7 +2170,7 @@
       <c r="A41" s="23">
         <v>42887</v>
       </c>
-      <c r="B41" s="60"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
@@ -2178,7 +2190,7 @@
       <c r="A42" s="23">
         <v>42917</v>
       </c>
-      <c r="B42" s="60"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
@@ -2198,7 +2210,7 @@
       <c r="A43" s="23">
         <v>42948</v>
       </c>
-      <c r="B43" s="60"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="13">
         <v>1.25</v>
       </c>
@@ -2218,7 +2230,7 @@
       <c r="A44" s="23">
         <v>42979</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="13">
@@ -2240,7 +2252,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="13"/>
@@ -2264,7 +2276,7 @@
       <c r="A46" s="23">
         <v>43009</v>
       </c>
-      <c r="B46" s="60"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
@@ -2284,7 +2296,7 @@
       <c r="A47" s="23">
         <v>43040</v>
       </c>
-      <c r="B47" s="60"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
@@ -2304,7 +2316,7 @@
       <c r="A48" s="23">
         <v>43070</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="13">
@@ -3598,11 +3610,15 @@
       <c r="A110" s="39">
         <v>44805</v>
       </c>
-      <c r="B110" s="20"/>
+      <c r="B110" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C110" s="13">
         <v>1.25</v>
       </c>
-      <c r="D110" s="38"/>
+      <c r="D110" s="38">
+        <v>2</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
       <c r="G110" s="13">
@@ -3612,7 +3628,9 @@
       <c r="H110" s="38"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
+      <c r="K110" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39">
@@ -3638,7 +3656,9 @@
       <c r="A112" s="39">
         <v>44866</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C112" s="13">
         <v>1.25</v>
       </c>
@@ -3652,57 +3672,59 @@
       <c r="H112" s="38"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="39">
-        <v>44896</v>
-      </c>
+      <c r="A113" s="39"/>
       <c r="B113" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D113" s="38">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="38"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H113" s="38"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="39"/>
+      <c r="A114" s="39">
+        <v>44896</v>
+      </c>
       <c r="B114" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="38"/>
+        <v>74</v>
+      </c>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D114" s="38">
+        <v>3</v>
+      </c>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="38"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B115" s="20"/>
+      <c r="A115" s="39"/>
+      <c r="B115" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C115" s="13"/>
       <c r="D115" s="38"/>
       <c r="E115" s="9"/>
@@ -3714,10 +3736,14 @@
       <c r="H115" s="38"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="39"/>
+      <c r="A116" s="47" t="s">
+        <v>63</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="38"/>
@@ -3733,15 +3759,19 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="39"/>
+      <c r="A117" s="39">
+        <v>44927</v>
+      </c>
       <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="38"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="38"/>
       <c r="I117" s="9"/>
@@ -4581,20 +4611,36 @@
       <c r="K169" s="20"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="40"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="42"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="38"/>
       <c r="E170" s="9"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H170" s="42"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H170" s="38"/>
       <c r="I170" s="9"/>
-      <c r="J170" s="12"/>
-      <c r="K170" s="15"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="20"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="40"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="42"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H171" s="42"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4659,17 +4705,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -4744,12 +4790,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
